--- a/ERPReports/ERPReports/Areas/Reports/Templates/ProductivityIndexReport.xlsx
+++ b/ERPReports/ERPReports/Areas/Reports/Templates/ProductivityIndexReport.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CC2A71-8E49-4A06-B690-6B1456D74B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEE267-914E-4CDD-955F-8F26DC5D7C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -76,15 +76,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-10409]#,##0.00;\(#,##0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -306,88 +301,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -396,30 +389,58 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -428,44 +449,12 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,9 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -796,22 +784,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
@@ -819,15 +807,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
@@ -881,186 +869,186 @@
       <c r="K9" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1081,13 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1107,41 +1092,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1150,17 +1135,17 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1174,27 +1159,27 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="6"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="35">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="G8" s="33">
         <v>0</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="22">
         <v>0</v>
       </c>
@@ -1204,40 +1189,24 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" s="31" t="e">
-        <f>SUM(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,G8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="23" t="e">
-        <f>SUM(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,I8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="23" t="e">
-        <f>SUM(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,J8)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:L9" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <mergeCells count="12">
-    <mergeCell ref="G11:H11"/>
+  <mergeCells count="11">
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="A9:K9"/>

--- a/ERPReports/ERPReports/Areas/Reports/Templates/ProductivityIndexReport.xlsx
+++ b/ERPReports/ERPReports/Areas/Reports/Templates/ProductivityIndexReport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEE267-914E-4CDD-955F-8F26DC5D7C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E3A77-8542-4A0F-A49B-20847F80EE25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t xml:space="preserve"> TOTAL</t>
   </si>
   <si>
-    <t>Productivity Index Report</t>
-  </si>
-  <si>
     <t>std labor min</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Total Produced Minutes</t>
   </si>
   <si>
-    <t>Classification in Productivityn Index Report</t>
-  </si>
-  <si>
     <t>Run Date: 10/24/2020</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Page 2 Of 2</t>
+  </si>
+  <si>
+    <t>Produced Minutes Report</t>
+  </si>
+  <si>
+    <t>Classification in Productivity Index Report</t>
   </si>
 </sst>
 </file>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -795,7 +795,7 @@
     <row r="2" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -820,24 +820,24 @@
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>2</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>3</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>2</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>3</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>2</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -853,17 +853,17 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="E9" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="I9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1093,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1105,13 +1105,13 @@
     <row r="2" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -1130,30 +1130,30 @@
     </row>
     <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="37" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>8</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>9</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1202,10 +1202,6 @@
       <c r="K9" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:L9" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-  </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="G8:H8"/>
